--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Thbs2</t>
+  </si>
+  <si>
+    <t>Itga6</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Thbs2</t>
-  </si>
-  <si>
-    <t>Itga6</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H2">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I2">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J2">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N2">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O2">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P2">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q2">
-        <v>149.176883518408</v>
+        <v>415.9917219273689</v>
       </c>
       <c r="R2">
-        <v>1342.591951665672</v>
+        <v>3743.92549734632</v>
       </c>
       <c r="S2">
-        <v>0.006229541216915433</v>
+        <v>0.01272434586152738</v>
       </c>
       <c r="T2">
-        <v>0.006229541216915433</v>
+        <v>0.01272434586152738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H3">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I3">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J3">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.995073</v>
       </c>
       <c r="O3">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P3">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q3">
-        <v>1.767096985064</v>
+        <v>4.205163255942222</v>
       </c>
       <c r="R3">
-        <v>15.903872865576</v>
+        <v>37.84646930348</v>
       </c>
       <c r="S3">
-        <v>7.379295801808866E-05</v>
+        <v>0.0001286274434137364</v>
       </c>
       <c r="T3">
-        <v>7.379295801808865E-05</v>
+        <v>0.0001286274434137364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H4">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I4">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J4">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N4">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O4">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P4">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q4">
-        <v>42.70641589174399</v>
+        <v>101.6289213489556</v>
       </c>
       <c r="R4">
-        <v>384.357743025696</v>
+        <v>914.6602921405999</v>
       </c>
       <c r="S4">
-        <v>0.001783395468182728</v>
+        <v>0.003108623264873182</v>
       </c>
       <c r="T4">
-        <v>0.001783395468182728</v>
+        <v>0.003108623264873181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H5">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I5">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J5">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N5">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O5">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P5">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q5">
-        <v>5.256227987352</v>
+        <v>7.651632700457778</v>
       </c>
       <c r="R5">
-        <v>47.306051886168</v>
+        <v>68.86469430411999</v>
       </c>
       <c r="S5">
-        <v>0.0002194970703264038</v>
+        <v>0.0002340479768080497</v>
       </c>
       <c r="T5">
-        <v>0.0002194970703264037</v>
+        <v>0.0002340479768080497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H6">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I6">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J6">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N6">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O6">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P6">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q6">
-        <v>22.997058881328</v>
+        <v>61.64112244593334</v>
       </c>
       <c r="R6">
-        <v>206.973529931952</v>
+        <v>554.7701020134</v>
       </c>
       <c r="S6">
-        <v>0.0009603440076651414</v>
+        <v>0.00188547733031995</v>
       </c>
       <c r="T6">
-        <v>0.0009603440076651411</v>
+        <v>0.001885477330319949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.061304</v>
+        <v>2.525586666666667</v>
       </c>
       <c r="H7">
-        <v>3.183912</v>
+        <v>7.57676</v>
       </c>
       <c r="I7">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849164</v>
       </c>
       <c r="J7">
-        <v>0.01165639425243777</v>
+        <v>0.02762081880849163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N7">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O7">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P7">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q7">
-        <v>57.22835986616801</v>
+        <v>311.8773252791867</v>
       </c>
       <c r="R7">
-        <v>515.055238795512</v>
+        <v>2806.89592751268</v>
       </c>
       <c r="S7">
-        <v>0.002389823531329978</v>
+        <v>0.009539696931549341</v>
       </c>
       <c r="T7">
-        <v>0.002389823531329978</v>
+        <v>0.009539696931549336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H8">
         <v>246.508934</v>
       </c>
       <c r="I8">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J8">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N8">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O8">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P8">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q8">
-        <v>11549.76473393892</v>
+        <v>13534.23837169715</v>
       </c>
       <c r="R8">
-        <v>103947.8826054502</v>
+        <v>121808.1453452744</v>
       </c>
       <c r="S8">
-        <v>0.4823115603354886</v>
+        <v>0.4139849928165108</v>
       </c>
       <c r="T8">
-        <v>0.4823115603354886</v>
+        <v>0.4139849928165107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H9">
         <v>246.508934</v>
       </c>
       <c r="I9">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J9">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>4.995073</v>
       </c>
       <c r="O9">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P9">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q9">
-        <v>136.8144578313535</v>
+        <v>136.8144578313536</v>
       </c>
       <c r="R9">
         <v>1231.330120482182</v>
       </c>
       <c r="S9">
-        <v>0.005713293400617161</v>
+        <v>0.004184877699579436</v>
       </c>
       <c r="T9">
-        <v>0.00571329340061716</v>
+        <v>0.004184877699579435</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H10">
         <v>246.508934</v>
       </c>
       <c r="I10">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J10">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N10">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O10">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P10">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q10">
-        <v>3306.471113659696</v>
+        <v>3306.484178633199</v>
       </c>
       <c r="R10">
-        <v>29758.24002293727</v>
+        <v>29758.35760769879</v>
       </c>
       <c r="S10">
-        <v>0.1380763399748973</v>
+        <v>0.1011386670861275</v>
       </c>
       <c r="T10">
-        <v>0.1380763399748973</v>
+        <v>0.1011386670861275</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H11">
         <v>246.508934</v>
       </c>
       <c r="I11">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J11">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N11">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O11">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P11">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q11">
-        <v>406.954450381514</v>
+        <v>248.9449078959065</v>
       </c>
       <c r="R11">
-        <v>3662.590053433626</v>
+        <v>2240.504171063158</v>
       </c>
       <c r="S11">
-        <v>0.0169941847708997</v>
+        <v>0.007614721499401995</v>
       </c>
       <c r="T11">
-        <v>0.0169941847708997</v>
+        <v>0.007614721499401993</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H12">
         <v>246.508934</v>
       </c>
       <c r="I12">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J12">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N12">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O12">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P12">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q12">
-        <v>1780.507900334996</v>
+        <v>2005.486168851923</v>
       </c>
       <c r="R12">
-        <v>16024.57110301496</v>
+        <v>18049.37551966731</v>
       </c>
       <c r="S12">
-        <v>0.07435299015890572</v>
+        <v>0.06134376788737358</v>
       </c>
       <c r="T12">
-        <v>0.07435299015890569</v>
+        <v>0.06134376788737357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>82.16964466666666</v>
+        <v>82.16964466666667</v>
       </c>
       <c r="H13">
         <v>246.508934</v>
       </c>
       <c r="I13">
-        <v>0.9024763628681201</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="J13">
-        <v>0.9024763628681199</v>
+        <v>0.8986398672636355</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N13">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O13">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P13">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q13">
-        <v>4430.80775636307</v>
+        <v>10146.88956669388</v>
       </c>
       <c r="R13">
-        <v>39877.26980726764</v>
+        <v>91322.00610024495</v>
       </c>
       <c r="S13">
-        <v>0.1850279942273117</v>
+        <v>0.3103728402746423</v>
       </c>
       <c r="T13">
-        <v>0.1850279942273117</v>
+        <v>0.3103728402746422</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H14">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I14">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J14">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N14">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O14">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P14">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q14">
-        <v>0.7534952727157777</v>
+        <v>1101.656080209383</v>
       </c>
       <c r="R14">
-        <v>6.781457454441999</v>
+        <v>9914.904721884448</v>
       </c>
       <c r="S14">
-        <v>3.146553103554181E-05</v>
+        <v>0.03369743253565565</v>
       </c>
       <c r="T14">
-        <v>3.14655310355418E-05</v>
+        <v>0.03369743253565565</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H15">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I15">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J15">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.995073</v>
       </c>
       <c r="O15">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P15">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q15">
-        <v>0.008925640442888887</v>
+        <v>11.13638427158578</v>
       </c>
       <c r="R15">
-        <v>0.08033076398599999</v>
+        <v>100.227458444272</v>
       </c>
       <c r="S15">
-        <v>3.727296328689052E-07</v>
+        <v>0.0003406394830695023</v>
       </c>
       <c r="T15">
-        <v>3.727296328689052E-07</v>
+        <v>0.0003406394830695023</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H16">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I16">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J16">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N16">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O16">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P16">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q16">
-        <v>0.2157109180062222</v>
+        <v>269.1402574322044</v>
       </c>
       <c r="R16">
-        <v>1.941398262056</v>
+        <v>2422.26231688984</v>
       </c>
       <c r="S16">
-        <v>9.007964390760369E-06</v>
+        <v>0.008232456417548176</v>
       </c>
       <c r="T16">
-        <v>9.00796439076037E-06</v>
+        <v>0.008232456417548174</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H17">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I17">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J17">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N17">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O17">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P17">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q17">
-        <v>0.026549307422</v>
+        <v>20.26354670937422</v>
       </c>
       <c r="R17">
-        <v>0.238943766798</v>
+        <v>182.371920384368</v>
       </c>
       <c r="S17">
-        <v>1.108683872226753E-06</v>
+        <v>0.0006198209318124627</v>
       </c>
       <c r="T17">
-        <v>1.108683872226753E-06</v>
+        <v>0.0006198209318124626</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H18">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I18">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J18">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N18">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O18">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P18">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q18">
-        <v>0.116158581308</v>
+        <v>163.2419919773067</v>
       </c>
       <c r="R18">
-        <v>1.045427231772</v>
+        <v>1469.17792779576</v>
       </c>
       <c r="S18">
-        <v>4.850715827344099E-06</v>
+        <v>0.004993242546799026</v>
       </c>
       <c r="T18">
-        <v>4.850715827344097E-06</v>
+        <v>0.004993242546799025</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.005360666666666666</v>
+        <v>6.688421333333333</v>
       </c>
       <c r="H19">
-        <v>0.016082</v>
+        <v>20.065264</v>
       </c>
       <c r="I19">
-        <v>5.887666881738699E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="J19">
-        <v>5.887666881738698E-05</v>
+        <v>0.07314723196835456</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N19">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O19">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P19">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q19">
-        <v>0.2890615329091111</v>
+        <v>825.9336269514613</v>
       </c>
       <c r="R19">
-        <v>2.601553796182</v>
+        <v>7433.402642563151</v>
       </c>
       <c r="S19">
-        <v>1.207104405864506E-05</v>
+        <v>0.02526364005346975</v>
       </c>
       <c r="T19">
-        <v>1.207104405864506E-05</v>
+        <v>0.02526364005346974</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H20">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I20">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J20">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N20">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O20">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P20">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q20">
-        <v>1087.933320206713</v>
+        <v>8.917229991256889</v>
       </c>
       <c r="R20">
-        <v>9791.399881860418</v>
+        <v>80.255069921312</v>
       </c>
       <c r="S20">
-        <v>0.04543147235440854</v>
+        <v>0.0002727600395744132</v>
       </c>
       <c r="T20">
-        <v>0.04543147235440853</v>
+        <v>0.0002727600395744132</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H21">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I21">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J21">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.995073</v>
       </c>
       <c r="O21">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P21">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q21">
-        <v>12.88727612982155</v>
+        <v>0.09014219737422222</v>
       </c>
       <c r="R21">
-        <v>115.985485168394</v>
+        <v>0.811279776368</v>
       </c>
       <c r="S21">
-        <v>0.0005381652701880399</v>
+        <v>2.757267598483443E-06</v>
       </c>
       <c r="T21">
-        <v>0.0005381652701880398</v>
+        <v>2.757267598483443E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H22">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I22">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J22">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N22">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O22">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P22">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q22">
-        <v>311.4539715498248</v>
+        <v>2.178525238995555</v>
       </c>
       <c r="R22">
-        <v>2803.085743948423</v>
+        <v>19.60672715096</v>
       </c>
       <c r="S22">
-        <v>0.01300613947134928</v>
+        <v>6.663668325084108E-05</v>
       </c>
       <c r="T22">
-        <v>0.01300613947134928</v>
+        <v>6.663668325084107E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H23">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I23">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J23">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N23">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O23">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P23">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q23">
-        <v>38.333188300838</v>
+        <v>0.1640209768657778</v>
       </c>
       <c r="R23">
-        <v>344.998694707542</v>
+        <v>1.476188791792</v>
       </c>
       <c r="S23">
-        <v>0.001600771988686731</v>
+        <v>5.01707011984756E-06</v>
       </c>
       <c r="T23">
-        <v>0.001600771988686731</v>
+        <v>5.017070119847559E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H24">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I24">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J24">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N24">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O24">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P24">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q24">
-        <v>167.715439776332</v>
+        <v>1.321343759493333</v>
       </c>
       <c r="R24">
-        <v>1509.438957986988</v>
+        <v>11.89209383544</v>
       </c>
       <c r="S24">
-        <v>0.007003700708567452</v>
+        <v>4.041723455424811E-05</v>
       </c>
       <c r="T24">
-        <v>0.00700370070856745</v>
+        <v>4.04172345542481E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>7.739992666666666</v>
+        <v>0.05413866666666667</v>
       </c>
       <c r="H25">
-        <v>23.219978</v>
+        <v>0.162416</v>
       </c>
       <c r="I25">
-        <v>0.08500901347177042</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="J25">
-        <v>0.08500901347177041</v>
+        <v>0.0005920819595183135</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N25">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O25">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P25">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q25">
-        <v>417.3611761469865</v>
+        <v>6.685425915898667</v>
       </c>
       <c r="R25">
-        <v>3756.250585322878</v>
+        <v>60.168833243088</v>
       </c>
       <c r="S25">
-        <v>0.01742876367857039</v>
+        <v>0.0002044936644204802</v>
       </c>
       <c r="T25">
-        <v>0.01742876367857038</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H26">
-        <v>0.218341</v>
-      </c>
-      <c r="I26">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J26">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>140.5599936666667</v>
-      </c>
-      <c r="N26">
-        <v>421.679981</v>
-      </c>
-      <c r="O26">
-        <v>0.5344312385120821</v>
-      </c>
-      <c r="P26">
-        <v>0.5344312385120821</v>
-      </c>
-      <c r="Q26">
-        <v>10.23000319239122</v>
-      </c>
-      <c r="R26">
-        <v>92.07002873152099</v>
-      </c>
-      <c r="S26">
-        <v>0.0004271990742340029</v>
-      </c>
-      <c r="T26">
-        <v>0.0004271990742340028</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H27">
-        <v>0.218341</v>
-      </c>
-      <c r="I27">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J27">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.665024333333333</v>
-      </c>
-      <c r="N27">
-        <v>4.995073</v>
-      </c>
-      <c r="O27">
-        <v>0.006330684808696814</v>
-      </c>
-      <c r="P27">
-        <v>0.006330684808696814</v>
-      </c>
-      <c r="Q27">
-        <v>0.1211810259881111</v>
-      </c>
-      <c r="R27">
-        <v>1.090629233893</v>
-      </c>
-      <c r="S27">
-        <v>5.06045024065599E-06</v>
-      </c>
-      <c r="T27">
-        <v>5.06045024065599E-06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H28">
-        <v>0.218341</v>
-      </c>
-      <c r="I28">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J28">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>40.23956933333333</v>
-      </c>
-      <c r="N28">
-        <v>120.718708</v>
-      </c>
-      <c r="O28">
-        <v>0.152997181594965</v>
-      </c>
-      <c r="P28">
-        <v>0.152997181594965</v>
-      </c>
-      <c r="Q28">
-        <v>2.928649269269777</v>
-      </c>
-      <c r="R28">
-        <v>26.357843423428</v>
-      </c>
-      <c r="S28">
-        <v>0.0001222987161449453</v>
-      </c>
-      <c r="T28">
-        <v>0.0001222987161449453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H29">
-        <v>0.218341</v>
-      </c>
-      <c r="I29">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J29">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>4.952613</v>
-      </c>
-      <c r="N29">
-        <v>14.857839</v>
-      </c>
-      <c r="O29">
-        <v>0.0188306148173136</v>
-      </c>
-      <c r="P29">
-        <v>0.01883061481731359</v>
-      </c>
-      <c r="Q29">
-        <v>0.360452825011</v>
-      </c>
-      <c r="R29">
-        <v>3.244075425099</v>
-      </c>
-      <c r="S29">
-        <v>1.505230352853261E-05</v>
-      </c>
-      <c r="T29">
-        <v>1.505230352853261E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H30">
-        <v>0.218341</v>
-      </c>
-      <c r="I30">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J30">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>21.668682</v>
-      </c>
-      <c r="N30">
-        <v>65.006046</v>
-      </c>
-      <c r="O30">
-        <v>0.08238774245854792</v>
-      </c>
-      <c r="P30">
-        <v>0.08238774245854791</v>
-      </c>
-      <c r="Q30">
-        <v>1.577053898854</v>
-      </c>
-      <c r="R30">
-        <v>14.193485089686</v>
-      </c>
-      <c r="S30">
-        <v>6.585686758227446E-05</v>
-      </c>
-      <c r="T30">
-        <v>6.585686758227443E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.07278033333333332</v>
-      </c>
-      <c r="H31">
-        <v>0.218341</v>
-      </c>
-      <c r="I31">
-        <v>0.0007993527388544392</v>
-      </c>
-      <c r="J31">
-        <v>0.0007993527388544391</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>53.92268366666667</v>
-      </c>
-      <c r="N31">
-        <v>161.768051</v>
-      </c>
-      <c r="O31">
-        <v>0.2050225378083947</v>
-      </c>
-      <c r="P31">
-        <v>0.2050225378083947</v>
-      </c>
-      <c r="Q31">
-        <v>3.924510891487889</v>
-      </c>
-      <c r="R31">
-        <v>35.320598023391</v>
-      </c>
-      <c r="S31">
-        <v>0.0001638853271240281</v>
-      </c>
-      <c r="T31">
-        <v>0.0001638853271240281</v>
+        <v>0.0002044936644204801</v>
       </c>
     </row>
   </sheetData>
